--- a/majImagerie/ig/StructureDefinition-fr-diagnostic-report-imaging-document.xlsx
+++ b/majImagerie/ig/StructureDefinition-fr-diagnostic-report-imaging-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:37:33+00:00</t>
+    <t>2025-12-05T10:47:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1210,7 +1210,7 @@
     <t>[Observations](http://hl7.org/fhir/R4/observation.html)  that are part of this diagnostic report.</t>
   </si>
   <si>
-    <t>Les résultats sont exprimés sous forme non codée dans notre cas d’usage. Le contenu narratif du résultat est porté dans FRObservationResultDocument.note</t>
+    <t>Les résultats sont exprimés sous forme non codée dans notre cas d’usage. Le contenu narratif du résultat est porté dans une note</t>
   </si>
   <si>
     <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.</t>

--- a/majImagerie/ig/StructureDefinition-fr-diagnostic-report-imaging-document.xlsx
+++ b/majImagerie/ig/StructureDefinition-fr-diagnostic-report-imaging-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T10:47:15+00:00</t>
+    <t>2025-12-05T14:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
